--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc40.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc40.xlsx
@@ -250,9 +250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,11 +1706,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10">
@@ -1831,13 +1831,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1967,8 +1967,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2095,11 +2095,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>462</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.99568965517241381</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>2.1551724137931034E-3</v>
       </c>
@@ -2360,7 +2360,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2491,7 +2491,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2622,7 +2622,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2753,7 +2753,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2884,7 +2884,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3146,7 +3146,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3277,7 +3277,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>2.1551724137931034E-3</v>
       </c>
@@ -3408,7 +3408,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3539,7 +3539,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3670,7 +3670,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3801,7 +3801,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3932,7 +3932,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4063,7 +4063,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4194,7 +4194,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4325,7 +4325,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4456,7 +4456,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4587,7 +4587,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4718,7 +4718,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4842,14 +4842,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4973,14 +4973,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5104,14 +5104,14 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5235,14 +5235,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5366,14 +5366,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5497,6 +5497,17 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:40">
       <c r="A39">
@@ -6546,7 +6557,7 @@
         <v>10</v>
       </c>
       <c r="AC47" t="b">
-        <f t="shared" ref="AC47:AG110" si="13">X47=MAX($X47:$AB47)</f>
+        <f t="shared" ref="AC47:AG97" si="13">X47=MAX($X47:$AB47)</f>
         <v>0</v>
       </c>
       <c r="AD47" t="b">
@@ -12666,7 +12677,7 @@
         <v>10</v>
       </c>
       <c r="AC98" t="b">
-        <f t="shared" ref="AC98:AG161" si="22">X98=MAX($X98:$AB98)</f>
+        <f t="shared" ref="AC98:AG148" si="22">X98=MAX($X98:$AB98)</f>
         <v>0</v>
       </c>
       <c r="AD98" t="b">
@@ -18786,7 +18797,7 @@
         <v>10</v>
       </c>
       <c r="AC149" t="b">
-        <f t="shared" ref="AC149:AG212" si="31">X149=MAX($X149:$AB149)</f>
+        <f t="shared" ref="AC149:AG199" si="31">X149=MAX($X149:$AB149)</f>
         <v>0</v>
       </c>
       <c r="AD149" t="b">
@@ -24906,7 +24917,7 @@
         <v>10</v>
       </c>
       <c r="AC200" t="b">
-        <f t="shared" ref="AC200:AG263" si="40">X200=MAX($X200:$AB200)</f>
+        <f t="shared" ref="AC200:AG250" si="40">X200=MAX($X200:$AB200)</f>
         <v>0</v>
       </c>
       <c r="AD200" t="b">
@@ -31026,7 +31037,7 @@
         <v>10</v>
       </c>
       <c r="AC251" t="b">
-        <f t="shared" ref="AC251:AG314" si="41">X251=MAX($X251:$AB251)</f>
+        <f t="shared" ref="AC251:AG301" si="41">X251=MAX($X251:$AB251)</f>
         <v>0</v>
       </c>
       <c r="AD251" t="b">
@@ -37146,7 +37157,7 @@
         <v>10</v>
       </c>
       <c r="AC302" t="b">
-        <f t="shared" ref="AC302:AG365" si="50">X302=MAX($X302:$AB302)</f>
+        <f t="shared" ref="AC302:AG352" si="50">X302=MAX($X302:$AB302)</f>
         <v>0</v>
       </c>
       <c r="AD302" t="b">
@@ -43266,7 +43277,7 @@
         <v>10</v>
       </c>
       <c r="AC353" t="b">
-        <f t="shared" ref="AC353:AG416" si="59">X353=MAX($X353:$AB353)</f>
+        <f t="shared" ref="AC353:AG403" si="59">X353=MAX($X353:$AB353)</f>
         <v>0</v>
       </c>
       <c r="AD353" t="b">
@@ -49386,7 +49397,7 @@
         <v>10</v>
       </c>
       <c r="AC404" t="b">
-        <f t="shared" ref="AC404:AG465" si="68">X404=MAX($X404:$AB404)</f>
+        <f t="shared" ref="AC404:AG454" si="68">X404=MAX($X404:$AB404)</f>
         <v>0</v>
       </c>
       <c r="AD404" t="b">
@@ -54449,7 +54460,7 @@
         <f t="shared" si="65"/>
         <v>2</v>
       </c>
-      <c r="AI446" s="10" t="s">
+      <c r="AI446" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AJ446" s="4">
